--- a/data/trans_dic/P37-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1322691624674428</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3650621018651937</v>
+        <v>0.3650621018651936</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1296625059828113</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1048483915425502</v>
+        <v>0.105433270997758</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1169755288114916</v>
+        <v>0.119466404370587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1193028575475112</v>
+        <v>0.1194749758502467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3337131743252618</v>
+        <v>0.3343264047964782</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08946523680983488</v>
+        <v>0.08966412807722736</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08265039355970608</v>
+        <v>0.08124940052420641</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09912778449923391</v>
+        <v>0.09882213894571291</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3265390838483931</v>
+        <v>0.3303587011252571</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1078927780898581</v>
+        <v>0.1066354236224959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1123164838831381</v>
+        <v>0.1108876703724031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1184780775876978</v>
+        <v>0.1199130943962682</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3438277379613972</v>
+        <v>0.3412998215237273</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1679597568304097</v>
+        <v>0.1717901164469063</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1889929381891605</v>
+        <v>0.1913077663991007</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1910335272249798</v>
+        <v>0.1910467257131764</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4223784342677755</v>
+        <v>0.4198342510343648</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.164942475358317</v>
+        <v>0.1658346417532845</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1628635167262457</v>
+        <v>0.1584173378103021</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1783484070188064</v>
+        <v>0.1760262429480838</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3997880654423269</v>
+        <v>0.4051065688337465</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1560300622486814</v>
+        <v>0.1555199414896888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1642565895120791</v>
+        <v>0.1676567692570307</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1705824022264919</v>
+        <v>0.1714388956704149</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4002111274576344</v>
+        <v>0.3976342978786477</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1337312953612633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.373054231152078</v>
+        <v>0.3730542311520781</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06972250996774175</v>
@@ -821,7 +821,7 @@
         <v>0.08937740224955587</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3030961169932769</v>
+        <v>0.3030961169932768</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1138950996353965</v>
@@ -833,7 +833,7 @@
         <v>0.1117009245099503</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3403934348194023</v>
+        <v>0.3403934348194024</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1220675914770778</v>
+        <v>0.1243170808936291</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1480590579618428</v>
+        <v>0.1493229899403215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09993768589789481</v>
+        <v>0.1023419910503144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3307038486639041</v>
+        <v>0.3279446846110065</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04610400870309273</v>
+        <v>0.04478207938714521</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06386294552537608</v>
+        <v>0.06522458497981629</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06482115039732753</v>
+        <v>0.06286710698896437</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2628614265203811</v>
+        <v>0.2652251262295572</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08996281190552177</v>
+        <v>0.09075962001555905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1214770195879102</v>
+        <v>0.1198100621905264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08880941626071813</v>
+        <v>0.09088607693912434</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3129156100796085</v>
+        <v>0.3135906513171914</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2026872936773741</v>
+        <v>0.2038323812792114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2357420916183377</v>
+        <v>0.2338528699940056</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.171593189065569</v>
+        <v>0.1740904666070773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4184235872750695</v>
+        <v>0.4192153875318839</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1000459832589275</v>
+        <v>0.1026067142424367</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1328884135967107</v>
+        <v>0.1325752339720341</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1275592137142027</v>
+        <v>0.1267177197731116</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3381484646745042</v>
+        <v>0.3410125813799526</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1423239654692279</v>
+        <v>0.1389071487611062</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.180950557490759</v>
+        <v>0.1811856083541558</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1367176263407002</v>
+        <v>0.1386325788496325</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3676131540534592</v>
+        <v>0.3713551862403238</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1720934008786681</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3159544392750915</v>
+        <v>0.3159544392750914</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1257955049268977</v>
@@ -957,7 +957,7 @@
         <v>0.1748943613107991</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3885835622695167</v>
+        <v>0.3885835622695166</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1250988511884592</v>
@@ -969,7 +969,7 @@
         <v>0.1727696780888445</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3366153062485745</v>
+        <v>0.3366153062485746</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09848754448086898</v>
+        <v>0.09744800116783454</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1474994086824746</v>
+        <v>0.1472564553210163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1398069038896509</v>
+        <v>0.1376567519331162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2746167585400614</v>
+        <v>0.2781286629535607</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08535741566228407</v>
+        <v>0.080958648899343</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08665585874293975</v>
+        <v>0.08546834043056169</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1160183601819623</v>
+        <v>0.1138506545342176</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3322666132129972</v>
+        <v>0.328828673948326</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09926235415975432</v>
+        <v>0.1026672265814938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1356074548206651</v>
+        <v>0.1366138960199622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1443332088150786</v>
+        <v>0.1448810549070539</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3059585708147636</v>
+        <v>0.3037622214808084</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1538786459913195</v>
+        <v>0.1546133154932987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.21291343603268</v>
+        <v>0.2147443319204271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.208520167350954</v>
+        <v>0.2066019808017826</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3582548281271439</v>
+        <v>0.3573165495076607</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1857682283600683</v>
+        <v>0.1835254800836823</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1720403198135949</v>
+        <v>0.1671618457192063</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2468795412616895</v>
+        <v>0.2504161605390921</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4464193494607056</v>
+        <v>0.4465031815866597</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1524889219889007</v>
+        <v>0.1523215181268266</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1898845111009277</v>
+        <v>0.1898444229831339</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2022943929441491</v>
+        <v>0.1994782283765112</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3738399875246476</v>
+        <v>0.3720434263583627</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1509024988116524</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3207495774905213</v>
+        <v>0.3207495774905214</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1417444049445235</v>
+        <v>0.1467753843586527</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1748478775558311</v>
+        <v>0.1760252018646116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1497594854500419</v>
+        <v>0.1495518615544701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3038103677064813</v>
+        <v>0.3073240966805622</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1051337984396364</v>
+        <v>0.1068307222876738</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09879820861635685</v>
+        <v>0.09920634314592008</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.100586460899589</v>
+        <v>0.1000834080322461</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2769340487503663</v>
+        <v>0.2771578049350145</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1361233919368731</v>
+        <v>0.1363801264706559</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1504164032350953</v>
+        <v>0.1498693736170193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1348398179530741</v>
+        <v>0.1361921842766835</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3016737012468785</v>
+        <v>0.3019328438423883</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1843879036131182</v>
+        <v>0.1859223702744453</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2226014569609596</v>
+        <v>0.2239735304752883</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1948086835530915</v>
+        <v>0.1937681065487593</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3612088793267286</v>
+        <v>0.3638394284107683</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1560822306898754</v>
+        <v>0.156322035735369</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1483171596316024</v>
+        <v>0.1481384620178881</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1470052167004556</v>
+        <v>0.1497585859308007</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3287382063378136</v>
+        <v>0.3290258438161318</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1681546247924675</v>
+        <v>0.1692621792288241</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1862231520183855</v>
+        <v>0.1859263514520829</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1675553061267759</v>
+        <v>0.1680912843016265</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3416522921164297</v>
+        <v>0.3404525078139218</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1840311417304852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2472736147757133</v>
+        <v>0.2472736147757132</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1419039944276068</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.106823343146945</v>
+        <v>0.1089853297003676</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1517092143214006</v>
+        <v>0.1500258305501752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1528470305844641</v>
+        <v>0.1556918991013891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2160842507204522</v>
+        <v>0.2139615672012436</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.114397678482477</v>
+        <v>0.1143687934966125</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.168599376476908</v>
+        <v>0.1709046734300732</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1403502713638359</v>
+        <v>0.1392596034400258</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3278292127491532</v>
+        <v>0.3249852232963796</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1206418658320077</v>
+        <v>0.1171609455617375</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1705890476338946</v>
+        <v>0.1704662558315231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1565773277998289</v>
+        <v>0.1560420635847233</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2891382096772644</v>
+        <v>0.2908921275465484</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1831673982003117</v>
+        <v>0.1842715314748447</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2215524780520348</v>
+        <v>0.220135220599906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2186820389043394</v>
+        <v>0.2173469773261226</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.281821788502182</v>
+        <v>0.2813303438656544</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1736538428332134</v>
+        <v>0.1739349013681635</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2277723928267139</v>
+        <v>0.2290922241036069</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.198823484253034</v>
+        <v>0.1965141052040263</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3816695067820418</v>
+        <v>0.3802000806496393</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.16861859850841</v>
+        <v>0.1666365308974924</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2149875849730226</v>
+        <v>0.2161502457693489</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.197020472330191</v>
+        <v>0.1986397858305931</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3300605550440824</v>
+        <v>0.3338133185305597</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.05911414557525382</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04988953573239244</v>
+        <v>0.04988953573239245</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2220265607720721</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02387070456273547</v>
+        <v>0.02046501328691884</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05104981509259753</v>
+        <v>0.05308207570747434</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03560869820014072</v>
+        <v>0.03388672762675437</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02789098234066874</v>
+        <v>0.02596857881311915</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1974660398980665</v>
+        <v>0.1991336808127984</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2462131858466229</v>
+        <v>0.2473156826548583</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.227017597588925</v>
+        <v>0.2265689685670285</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4170880939715174</v>
+        <v>0.417386131855687</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1676891637094033</v>
+        <v>0.1679898955364301</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.213882890927614</v>
+        <v>0.2147730688846624</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1875704383133736</v>
+        <v>0.1882373226824688</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.331520309555205</v>
+        <v>0.3305910621645556</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07096566357840565</v>
+        <v>0.06778964941027092</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1196499362817229</v>
+        <v>0.1263341916989791</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09827741940746647</v>
+        <v>0.09896593159192128</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0956241696630707</v>
+        <v>0.08755494824912331</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2446713366504282</v>
+        <v>0.245532583325875</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3015996892452707</v>
+        <v>0.3046518746468819</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2824957621014562</v>
+        <v>0.2813434064812608</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4836840372463103</v>
+        <v>0.4802786583597345</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2062219510367837</v>
+        <v>0.2104604839945005</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2620323735528576</v>
+        <v>0.2632909405596787</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2352634669635549</v>
+        <v>0.2369445471698527</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3929374795206645</v>
+        <v>0.3914909365719496</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.1573892138622306</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3100717116728894</v>
+        <v>0.3100717116728893</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.158562283222623</v>
@@ -1501,7 +1501,7 @@
         <v>0.1722581125569181</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3611357037237124</v>
+        <v>0.3611357037237123</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1489661178160666</v>
@@ -1513,7 +1513,7 @@
         <v>0.1649804422703873</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3362970815244296</v>
+        <v>0.3362970815244297</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.128473417218729</v>
+        <v>0.1271835007163172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1626466763715751</v>
+        <v>0.1623810203223918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1451890270893735</v>
+        <v>0.1460283735781236</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2951482300840313</v>
+        <v>0.2949039988110799</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1473033193784091</v>
+        <v>0.1467020474877016</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1689103933323941</v>
+        <v>0.169098625475891</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1592996415798789</v>
+        <v>0.1588399236906327</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3468611333300078</v>
+        <v>0.3480645600242863</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1400544628527356</v>
+        <v>0.1400617685816354</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1698088728947659</v>
+        <v>0.1706761158166477</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1554882872913557</v>
+        <v>0.1563268011383723</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.325772396980048</v>
+        <v>0.3260303620738411</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1516322372336799</v>
+        <v>0.151030613576563</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1904132339657505</v>
+        <v>0.1912931820428222</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1685353074311251</v>
+        <v>0.1700368086851803</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3281979870285553</v>
+        <v>0.3267747721242362</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1724587084609924</v>
+        <v>0.1721144156096697</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1947448767822384</v>
+        <v>0.1958060498640813</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1842420643358958</v>
+        <v>0.1860572871517618</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3742231641630816</v>
+        <v>0.3751073688458252</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1584280757993089</v>
+        <v>0.1569850973880623</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1888711809781216</v>
+        <v>0.1897528142410711</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1744046911786654</v>
+        <v>0.1749393985202804</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3462901316476594</v>
+        <v>0.3460245786917568</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49675</v>
+        <v>49952</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51024</v>
+        <v>52111</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51192</v>
+        <v>51266</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>183748</v>
+        <v>184086</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27437</v>
+        <v>27498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25990</v>
+        <v>25549</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>34403</v>
+        <v>34297</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>159485</v>
+        <v>161351</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>84206</v>
+        <v>83224</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>84310</v>
+        <v>83238</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>91956</v>
+        <v>93070</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>357247</v>
+        <v>354620</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>79575</v>
+        <v>81390</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>82438</v>
+        <v>83448</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>81971</v>
+        <v>81977</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>232569</v>
+        <v>231168</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50585</v>
+        <v>50858</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51213</v>
+        <v>49815</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>61897</v>
+        <v>61091</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>195261</v>
+        <v>197859</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>121775</v>
+        <v>121377</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>123299</v>
+        <v>125852</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>132397</v>
+        <v>133062</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>415831</v>
+        <v>413154</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>44791</v>
+        <v>45616</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>62007</v>
+        <v>62536</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37699</v>
+        <v>38606</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>159800</v>
+        <v>158467</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17099</v>
+        <v>16609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21518</v>
+        <v>21977</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24131</v>
+        <v>23404</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>111228</v>
+        <v>112228</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>66376</v>
+        <v>66964</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>91805</v>
+        <v>90545</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>66563</v>
+        <v>68119</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>283613</v>
+        <v>284224</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74373</v>
+        <v>74793</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>98728</v>
+        <v>97937</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64730</v>
+        <v>65672</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>202187</v>
+        <v>202570</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37105</v>
+        <v>38055</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44775</v>
+        <v>44670</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47487</v>
+        <v>47174</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>143085</v>
+        <v>144297</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>105009</v>
+        <v>102488</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>136751</v>
+        <v>136929</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>102470</v>
+        <v>103905</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>333188</v>
+        <v>336580</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>53419</v>
+        <v>52855</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>92686</v>
+        <v>92534</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72967</v>
+        <v>71845</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>129513</v>
+        <v>131169</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14321</v>
+        <v>13583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>22542</v>
+        <v>22233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19273</v>
+        <v>18913</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>62299</v>
+        <v>61654</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70493</v>
+        <v>72911</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>120489</v>
+        <v>121383</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>99306</v>
+        <v>99683</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>201660</v>
+        <v>200212</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>83462</v>
+        <v>83861</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>133792</v>
+        <v>134942</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>108830</v>
+        <v>107828</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>168957</v>
+        <v>168515</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31169</v>
+        <v>30792</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44753</v>
+        <v>43484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41012</v>
+        <v>41600</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>83702</v>
+        <v>83718</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>108293</v>
+        <v>108174</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>168715</v>
+        <v>168680</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>139186</v>
+        <v>137248</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>246401</v>
+        <v>245217</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>175527</v>
+        <v>181757</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>202650</v>
+        <v>204015</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>172169</v>
+        <v>171931</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>343866</v>
+        <v>347843</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>75095</v>
+        <v>76308</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>75744</v>
+        <v>76057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>83072</v>
+        <v>82656</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>238499</v>
+        <v>238691</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>265797</v>
+        <v>266299</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>289652</v>
+        <v>288599</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>266378</v>
+        <v>269050</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>601252</v>
+        <v>601768</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>228334</v>
+        <v>230234</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>257997</v>
+        <v>259587</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>223959</v>
+        <v>222763</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>408832</v>
+        <v>411809</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111487</v>
+        <v>111658</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>113708</v>
+        <v>113571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>121408</v>
+        <v>123682</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>283113</v>
+        <v>283361</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>328342</v>
+        <v>330505</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>358604</v>
+        <v>358032</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>331008</v>
+        <v>332067</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>680931</v>
+        <v>678540</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>37357</v>
+        <v>38113</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77306</v>
+        <v>76449</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>94873</v>
+        <v>96639</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>122728</v>
+        <v>121522</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>65064</v>
+        <v>65047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>128392</v>
+        <v>130148</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>103613</v>
+        <v>102808</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>272140</v>
+        <v>269779</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>110804</v>
+        <v>107607</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>216834</v>
+        <v>216678</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>212781</v>
+        <v>212053</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>404242</v>
+        <v>406694</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>64055</v>
+        <v>64441</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>112896</v>
+        <v>112174</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135737</v>
+        <v>134909</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>160065</v>
+        <v>159786</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>98766</v>
+        <v>98926</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>173454</v>
+        <v>174459</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>146780</v>
+        <v>145075</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>316834</v>
+        <v>315614</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>154869</v>
+        <v>153048</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>273269</v>
+        <v>274747</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>267741</v>
+        <v>269942</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>461455</v>
+        <v>466701</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7096</v>
+        <v>6084</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13525</v>
+        <v>14063</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10225</v>
+        <v>9730</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6617</v>
+        <v>6160</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>246407</v>
+        <v>248488</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>273137</v>
+        <v>274360</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>245639</v>
+        <v>245153</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>352140</v>
+        <v>352391</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>259102</v>
+        <v>259566</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>293935</v>
+        <v>295159</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>256816</v>
+        <v>257729</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>358542</v>
+        <v>357537</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21097</v>
+        <v>20153</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31699</v>
+        <v>33470</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>28220</v>
+        <v>28418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22685</v>
+        <v>20770</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>305312</v>
+        <v>306386</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>334580</v>
+        <v>337966</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>305667</v>
+        <v>304421</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>408365</v>
+        <v>405490</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>318640</v>
+        <v>325189</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>360106</v>
+        <v>361836</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>322116</v>
+        <v>324417</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>424965</v>
+        <v>423401</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>419906</v>
+        <v>415690</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>555745</v>
+        <v>554837</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>491570</v>
+        <v>494411</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1016041</v>
+        <v>1015200</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>497329</v>
+        <v>495299</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>599472</v>
+        <v>600140</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>562582</v>
+        <v>560958</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1260726</v>
+        <v>1265100</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>930613</v>
+        <v>930662</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1182878</v>
+        <v>1188920</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1075562</v>
+        <v>1081362</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2305539</v>
+        <v>2307364</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>495599</v>
+        <v>493632</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>650620</v>
+        <v>653627</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>570614</v>
+        <v>575697</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1129814</v>
+        <v>1124914</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>582260</v>
+        <v>581097</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>691160</v>
+        <v>694926</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>650669</v>
+        <v>657079</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1360178</v>
+        <v>1363392</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1052699</v>
+        <v>1043111</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1315665</v>
+        <v>1321807</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1206413</v>
+        <v>1210111</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2450746</v>
+        <v>2448866</v>
       </c>
     </row>
     <row r="32">
